--- a/outputs/excel/copernicus_marine.xlsx
+++ b/outputs/excel/copernicus_marine.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-02-11T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-02-15T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-02-14T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-11T23:45:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-16T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-16T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-02-16T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-02-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-12T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-02-12T23:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-02-17T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-11T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-12T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-02-12T11:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-11T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-10T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T23:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-02-03T10:36:30.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-02-07T17:30:23.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-02-03T09:17:38.000Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-02-07T12:10:32.748Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['2020-01-08T00:00:00.000Z', '2025-12-30T00:00:00.000Z']</t>
+          <t>['2020-01-08T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['2020-01-02T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['2020-01-02T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['2020-01-04T00:00:00.000Z', '2025-12-31T00:00:00.000Z']</t>
+          <t>['2020-01-04T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-25T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-29T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-22T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-22T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2024-01-17T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2022-05-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2022-05-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2025-12-27T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-01-29T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-02-07T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-02-02T15:00:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-02-06T15:00:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-02-03T12:55:33.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-02-07T22:32:44.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2024-10-03T22:11:12.000Z', '2026-02-01T23:57:36.000Z']</t>
+          <t>['2024-10-03T22:11:12.000Z', '2026-02-06T23:31:34.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2024-10-03T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2014-10-03T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-02-02T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-03T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-02-03T12:43:51.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-07T22:23:44.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2026-02-14T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2026-02-17T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-02-02T20:43:07.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-02-07T08:37:30.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T12:10:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T12:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-03T13:41:59.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T20:43:00.000Z']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T13:12:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-07T22:13:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T13:12:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-07T22:13:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-03T13:10:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T14:32:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-06T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2026-01-21T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -16615,17 +16615,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Global Ocean Zonal Mean Subsurface Temperature cumulative trend from Multi-Observations Reprocessing</t>
+          <t>Global Ocean Sea Surface Temperature time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_Tyz_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -16638,12 +16638,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1982-01-01</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2019-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -16665,17 +16665,13 @@
         <v>0</v>
       </c>
       <c r="O214" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
-      </c>
+      <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_Tyz_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -16687,12 +16683,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Global Ocean Sea Surface Temperature time series and trend from Observations Reprocessing</t>
+          <t>Global Ocean Sea Surface Temperature trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_trend.png</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -16706,7 +16702,11 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.05, 'units': 'degree'}, 'column': {'magnitude': 0.05, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
@@ -16715,12 +16715,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>[-180, -90, 180, 90]</t>
+          <t>[-179.97500610351562, -89.9749984741211, 179.97500610351562, 89.97500610351562]</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -16734,16 +16734,16 @@
         </is>
       </c>
       <c r="N215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P215" t="inlineStr"/>
       <c r="Q215" t="inlineStr"/>
       <c r="R215" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -16755,17 +16755,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Global Ocean Sea Surface Temperature trend map from Observations Reprocessing</t>
+          <t>Mean Heat Transport across sections from Reanalysis</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_heattrp.png</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -16774,48 +16774,48 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.05, 'units': 'degree'}, 'column': {'magnitude': 0.05, 'units': 'degree'}}</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1982-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Multi-yearly', 'Yearly']</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>[-179.97500610351562, -89.9749984741211, 179.97500610351562, 89.97500610351562]</t>
+          <t>[-180, -90, 180, 90]</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2017-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>['Temperature']</t>
+          <t>['Velocity']</t>
         </is>
       </c>
       <c r="N216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O216" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>2017-12-31</t>
+        </is>
+      </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_TEMPSAL_sst_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_heattrp-hq.png</t>
         </is>
       </c>
     </row>
@@ -16827,12 +16827,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mean Heat Transport across sections from Reanalysis</t>
+          <t>Northward Heat Transport for Global Ocean, Atlantic and Indian+Pacific basins from Reanalysis</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_heattrp.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_northward_mht.png</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="O217" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P217" t="inlineStr"/>
       <c r="Q217" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_heattrp-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_northward_mht-hq.png</t>
         </is>
       </c>
     </row>
@@ -16899,12 +16899,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Northward Heat Transport for Global Ocean, Atlantic and Indian+Pacific basins from Reanalysis</t>
+          <t>Mean Volume Transport across sections from Reanalysis</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_northward_mht.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_voltrp.png</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P218" t="inlineStr"/>
       <c r="Q218" t="inlineStr">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_northward_mht-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_voltrp-hq.png</t>
         </is>
       </c>
     </row>
@@ -16971,12 +16971,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mean Volume Transport across sections from Reanalysis</t>
+          <t>Iberia Biscay Ireland Coastal Upwelling Index from Reanalysis</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_voltrp.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_CURRENTS_cui.png</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -16987,7 +16987,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -16999,39 +16999,39 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['Multi-yearly', 'Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>[-180, -90, 180, 90]</t>
+          <t>[-19, 26, 5, 42]</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2017-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>['Velocity']</t>
+          <t>['Temperature']</t>
         </is>
       </c>
       <c r="N219" t="b">
         <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P219" t="inlineStr"/>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2021-08-01</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/GLOBAL_OMI_WMHE_voltrp-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_CURRENTS_cui-hq.png</t>
         </is>
       </c>
     </row>
@@ -17043,12 +17043,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Coastal Upwelling Index from Reanalysis</t>
+          <t>Iberia Biscay Ireland Significant Wave Height extreme from Reanalysis</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_CURRENTS_cui.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly.png</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -17062,48 +17062,52 @@
           <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.01, 'units': 'degree'}, 'column': {'magnitude': 0.01, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1980-01-01</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>[-19, 26, 5, 42]</t>
+          <t>[-19, 26, 5.000736236572266, 56.000919342041016]</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>['Temperature']</t>
+          <t>['Wave']</t>
         </is>
       </c>
       <c r="N220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O220" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P220" t="inlineStr"/>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>2021-08-01</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_CURRENTS_cui-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -17115,12 +17119,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Significant Wave Height extreme from Reanalysis</t>
+          <t>Iberia Biscay Ireland Strong Wave Incidence index from Reanalysis</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_swi.png</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -17147,7 +17151,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -17157,7 +17161,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['1980-01-01T00:00:00.000Z', '2025-04-30T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -17169,17 +17173,17 @@
         <v>1</v>
       </c>
       <c r="O221" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P221" t="inlineStr"/>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_swi-hq.png</t>
         </is>
       </c>
     </row>
@@ -17191,12 +17195,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Strong Wave Incidence index from Reanalysis</t>
+          <t>Iberia Biscay Ireland Sea Surface Temperature extreme from Reanalysis</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_swi.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -17212,50 +17216,50 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>{'row': {'magnitude': 0.01, 'units': 'degree'}, 'column': {'magnitude': 0.01, 'units': 'degree'}}</t>
+          <t>{'row': {'magnitude': 0.028, 'units': 'degree'}, 'column': {'magnitude': 0.028, 'units': 'degree'}}</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1980-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>[-19, 26, 5.000736236572266, 56.000919342041016]</t>
+          <t>[-19, 26, 5, 56]</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['1980-01-01T00:00:00.000Z', '2025-04-30T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>['Wave']</t>
+          <t>['Temperature']</t>
         </is>
       </c>
       <c r="N222" t="b">
         <v>1</v>
       </c>
       <c r="O222" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P222" t="inlineStr"/>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_SEASTATE_swi-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -17267,17 +17271,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Sea Surface Temperature extreme from Reanalysis</t>
+          <t>Mediterrranean Outflow Water Index from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_WMHE_mow.png</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['In-situ observations', 'Numerical models']</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
@@ -17286,11 +17290,7 @@
           <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.028, 'units': 'degree'}, 'column': {'magnitude': 0.028, 'units': 'degree'}}</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -17309,29 +17309,29 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>['Temperature']</t>
+          <t>['Salinity']</t>
         </is>
       </c>
       <c r="N223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O223" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P223" t="inlineStr"/>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2021-08-01</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_WMHE_mow-hq.png</t>
         </is>
       </c>
     </row>
@@ -17343,26 +17343,30 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mediterrranean Outflow Water Index from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Mediterranean Sea Significant Wave Height extreme from Reanalysis</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_WMHE_mow.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly.png</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr"/>
+          <t>['Mediterranean Sea']</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.042, 'units': 'degree'}, 'column': {'magnitude': 0.042, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
@@ -17371,39 +17375,39 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>[-19, 26, 5, 56]</t>
+          <t>[-18.125, 30.1875, 36.29166793823242, 45.97916793823242]</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2021-08-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2020-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>['Salinity']</t>
+          <t>['Wave']</t>
         </is>
       </c>
       <c r="N224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O224" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="P224" t="inlineStr"/>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>2021-08-01</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/IBI_OMI_WMHE_mow-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -17415,12 +17419,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Significant Wave Height extreme from Reanalysis</t>
+          <t>Mediterranean Sea Surface Temperature extreme from Reanalysis</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -17452,7 +17456,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>[-18.125, 30.1875, 36.29166793823242, 45.97916793823242]</t>
+          <t>[-17.29166603088379, 30.1875, 36.29166793823242, 45.97916793823242]</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -17462,7 +17466,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>['Wave']</t>
+          <t>['Temperature']</t>
         </is>
       </c>
       <c r="N225" t="b">
@@ -17479,7 +17483,7 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_SEASTATE_extreme_var_swh_mean_and_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -17491,17 +17495,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Surface Temperature extreme from Reanalysis</t>
+          <t>Mediterranean Sea Surface Temperature time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -17510,30 +17514,26 @@
           <t>['Mediterranean Sea']</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.042, 'units': 'degree'}, 'column': {'magnitude': 0.042, 'units': 'degree'}}</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1982-01-01</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>[-17.29166603088379, 30.1875, 36.29166793823242, 45.97916793823242]</t>
+          <t>[5.56, 30.13, 36.33, 46.03]</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2020-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -17542,20 +17542,16 @@
         </is>
       </c>
       <c r="N226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O226" t="n">
         <v>2</v>
       </c>
       <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>2020-12-31</t>
-        </is>
-      </c>
+      <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -17567,12 +17563,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Surface Temperature time series and trend from Observations Reprocessing</t>
+          <t>Mediterranean Sea Surface Temperature trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_trend.png</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -17586,7 +17582,11 @@
           <t>['Mediterranean Sea']</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.05, 'units': 'degree'}, 'column': {'magnitude': 0.05, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
@@ -17595,12 +17595,12 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>[5.56, 30.13, 36.33, 46.03]</t>
+          <t>[-5.563465118408203, 30.125, 36.32500076293945, 46.025001525878906]</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="N227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" t="n">
         <v>2</v>
@@ -17623,7 +17623,7 @@
       <c r="Q227" t="inlineStr"/>
       <c r="R227" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -17635,49 +17635,49 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Surface Temperature trend map from Observations Reprocessing</t>
+          <t>North West Shelf Sea Surface Temperature extreme from Reanalysis</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/NORTHWESTSHELF_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>{'row': {'magnitude': 0.05, 'units': 'degree'}, 'column': {'magnitude': 0.05, 'units': 'degree'}}</t>
+          <t>{'row': {'magnitude': 0.013, 'units': 'degree'}, 'column': {'magnitude': 0.03, 'units': 'degree'}}</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1982-01-01</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>[-5.563465118408203, 30.125, 36.32500076293945, 46.025001525878906]</t>
+          <t>[-16, 46, 13, 62.74324035644531]</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', None]</t>
+          <t>['2020-01-01T00:00:00.000Z', '2020-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -17692,10 +17692,14 @@
         <v>2</v>
       </c>
       <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/MEDSEA_OMI_TEMPSAL_sst_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/NORTHWESTSHELF_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -17707,12 +17711,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>North West Shelf Sea Surface Temperature extreme from Reanalysis</t>
+          <t>Black Sea Rim Current Intensity Index</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/NORTHWESTSHELF_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_BLKSEA_rim_current_index.png</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -17723,55 +17727,47 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.013, 'units': 'degree'}, 'column': {'magnitude': 0.03, 'units': 'degree'}}</t>
-        </is>
-      </c>
+          <t>['Black Sea']</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>1992-01-01</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
+          <t>['Yearly']</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>[31.5, 41.5, 39, 45]</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>['1992-01-01T00:00:00.000Z', None]</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>[-16, 46, 13, 62.74324035644531]</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>['2020-01-01T00:00:00.000Z', '2020-12-31T00:00:00.000Z']</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>['Temperature']</t>
-        </is>
-      </c>
       <c r="N229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>2020-12-31</t>
-        </is>
-      </c>
+      <c r="Q229" t="inlineStr"/>
       <c r="R229" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/NORTHWESTSHELF_OMI_TEMPSAL_extreme_var_temp_mean_and_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_BLKSEA_rim_current_index-hq.png</t>
         </is>
       </c>
     </row>
@@ -17783,63 +17779,63 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Black Sea Rim Current Intensity Index</t>
+          <t>Kuroshio Phase from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_BLKSEA_rim_current_index.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_PACIFIC_kuroshio_phase_area_averaged.png</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>['Black Sea']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1992-01-01</t>
+          <t>1993-01-15</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>[31.5, 41.5, 39, 45]</t>
+          <t>[-180, -90, 180, 90]</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['1992-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-15T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Velocity']</t>
         </is>
       </c>
       <c r="N230" t="b">
         <v>0</v>
       </c>
       <c r="O230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P230" t="inlineStr"/>
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_BLKSEA_rim_current_index-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_PACIFIC_kuroshio_phase_area_averaged-hq.png</t>
         </is>
       </c>
     </row>
@@ -17851,50 +17847,46 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Kuroshio Phase from Observations Reprocessing</t>
+          <t>Black Sea Overturning Circulation Index from Reanalysis</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_PACIFIC_kuroshio_phase_area_averaged.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_BLKSEA_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
+          <t>['Black Sea']</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1993-01-15</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>[-180, -90, 180, 90]</t>
-        </is>
-      </c>
+          <t>['Yearly']</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
-          <t>['1993-01-15T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>['Velocity']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N231" t="b">
@@ -17907,7 +17899,7 @@
       <c r="Q231" t="inlineStr"/>
       <c r="R231" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_BOUNDARY_PACIFIC_kuroshio_phase_area_averaged-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_BLKSEA_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -17919,12 +17911,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Black Sea Overturning Circulation Index from Reanalysis</t>
+          <t>Mediterranean Meridional Overturning Circulation Index from Reanalysis</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_BLKSEA_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_MEDSEA_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -17935,14 +17927,14 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>['Black Sea']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1987-01-01</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -17950,10 +17942,14 @@
           <t>['Yearly']</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>[-6, 30, 36, 46]</t>
+        </is>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', None]</t>
+          <t>['1987-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -17965,13 +17961,13 @@
         <v>0</v>
       </c>
       <c r="O232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P232" t="inlineStr"/>
       <c r="Q232" t="inlineStr"/>
       <c r="R232" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_BLKSEA_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_MEDSEA_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -17983,12 +17979,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Mediterranean Meridional Overturning Circulation Index from Reanalysis</t>
+          <t>Nordic Seas Volume Transports from Reanalysis</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_MEDSEA_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_ARCTIC_averaged.png</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -17996,50 +17992,58 @@
           <t>['Numerical models']</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Level 4</t>
+        </is>
+      </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Arctic Ocean']</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1987-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>[-6, 30, 36, 46]</t>
+          <t>[-180, 60, 180, 90]</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['1987-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2021-12-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Velocity']</t>
         </is>
       </c>
       <c r="N233" t="b">
         <v>0</v>
       </c>
       <c r="O233" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
+      </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_MOC_MEDSEA_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_ARCTIC_averaged-hq.png</t>
         </is>
       </c>
     </row>
@@ -18051,27 +18055,23 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Nordic Seas Volume Transports from Reanalysis</t>
+          <t>Volume Transport Anomaly in Selected Vertical Sections</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_ARCTIC_averaged.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_IBI_section_integrated_anomalies.png</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
+          <t>['In-situ observations', 'Numerical models']</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>['Arctic Ocean']</t>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -18083,39 +18083,39 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>[-180, 60, 180, 90]</t>
+          <t>[-19, 26, 5, 56]</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2021-12-15T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>['Velocity']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N234" t="b">
         <v>0</v>
       </c>
       <c r="O234" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P234" t="inlineStr"/>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_ARCTIC_averaged-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_IBI_section_integrated_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -18127,23 +18127,23 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Volume Transport Anomaly in Selected Vertical Sections</t>
+          <t>Baltic Sea Ocean Freshwater Content Anomaly (0-300m) from Reanalysis</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_IBI_section_integrated_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OFC_BALTIC_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -18160,12 +18160,12 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>[-19, 26, 5, 56]</t>
+          <t>[9, 53, 30, 66]</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -18177,17 +18177,17 @@
         <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="P235" t="inlineStr"/>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CIRCULATION_VOLTRANS_IBI_section_integrated_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OFC_BALTIC_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -18199,12 +18199,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Baltic Sea Ocean Freshwater Content Anomaly (0-300m) from Reanalysis</t>
+          <t>Baltic Sea Ocean Heat Content Anomaly (0-300m) from Reanalysis</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OFC_BALTIC_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_OHC_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -18271,67 +18271,63 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Baltic Sea Ocean Heat Content Anomaly (0-300m) from Reanalysis</t>
+          <t>Black Sea Ocean Heat Content Anomaly (0-300m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_OHC_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_BLKSEA_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['In-situ observations', 'Numerical models']</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Black Sea']</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>[9, 53, 30, 66]</t>
+          <t>[27.32, 40.86, 41.96, 46.8]</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2005-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Temperature']</t>
         </is>
       </c>
       <c r="N237" t="b">
         <v>0</v>
       </c>
       <c r="O237" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
+      <c r="Q237" t="inlineStr"/>
       <c r="R237" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OFC_BALTIC_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_BLKSEA_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -18343,23 +18339,23 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Black Sea Ocean Heat Content Anomaly (0-300m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Heat Content (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_BLKSEA_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_2000.png</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models']</t>
+          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>['Black Sea']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -18371,17 +18367,17 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>[27.32, 40.86, 41.96, 46.8]</t>
+          <t>[-180, -60, 180, 60]</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['2005-01-01T00:00:00.000Z', None]</t>
+          <t>['2005-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -18393,13 +18389,17 @@
         <v>0</v>
       </c>
       <c r="O238" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_BLKSEA_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_2000-hq.png</t>
         </is>
       </c>
     </row>
@@ -18411,12 +18411,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Global Ocean Heat Content (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Heat Content (0-300m) from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_2000.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_300.png</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_2000-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_300-hq.png</t>
         </is>
       </c>
     </row>
@@ -18483,12 +18483,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Global Ocean Heat Content (0-300m) from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Heat Content (0-700m) from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_300.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_700.png</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_300-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_700-hq.png</t>
         </is>
       </c>
     </row>
@@ -18555,12 +18555,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Global Ocean Heat Content (0-700m) from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Heat Content trend map from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_700.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_trend.png</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -18574,7 +18574,11 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr"/>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
@@ -18588,7 +18592,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>[-180, -60, 180, 60]</t>
+          <t>[-180, -80, 179.75, 90]</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -18602,10 +18606,10 @@
         </is>
       </c>
       <c r="N241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O241" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P241" t="inlineStr"/>
       <c r="Q241" t="inlineStr">
@@ -18615,7 +18619,7 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_area_averaged_anomalies_0_700-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -18627,34 +18631,30 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Global Ocean Heat Content trend map from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Iberia Biscay Ireland Ocean Heat Content Anomaly (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_IBI_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
+          <t>['In-situ observations', 'Numerical models']</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
-        </is>
-      </c>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2005-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -18664,12 +18664,12 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>[-180, -80, 179.75, 90]</t>
+          <t>[-19, 26, 5, 56]</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>['2005-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2022-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -18678,20 +18678,20 @@
         </is>
       </c>
       <c r="N242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O242" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P242" t="inlineStr"/>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_GLOBAL_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_IBI_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -18703,12 +18703,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Ocean Heat Content Anomaly (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Mediterranean Ocean Heat Content Anomaly (0-700m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_IBI_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_MEDSEA_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -18719,7 +18719,7 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -18736,34 +18736,30 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>[-19, 26, 5, 56]</t>
+          <t>[-6, 30, 36, 46]</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2022-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>['Temperature']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N243" t="b">
         <v>0</v>
       </c>
       <c r="O243" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
-      </c>
+      <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_IBI_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_MEDSEA_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -18775,17 +18771,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Mediterranean Ocean Heat Content Anomaly (0-700m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Mediterranean Ocean Salt Content (0-300m)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_MEDSEA_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OSC_MEDSEA_volume_mean.png</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -18813,12 +18809,12 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2019-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Salinity']</t>
         </is>
       </c>
       <c r="N244" t="b">
@@ -18828,10 +18824,14 @@
         <v>8</v>
       </c>
       <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OHC_MEDSEA_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OSC_MEDSEA_volume_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -18843,23 +18843,23 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Mediterranean Ocean Salt Content (0-300m)</t>
+          <t>Baltic Sea Ice Extent from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OSC_MEDSEA_volume_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_SI_extent.png</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -18871,39 +18871,35 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Daily']</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>[-6, 30, 36, 46]</t>
+          <t>[9, 53, 30, 66]</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2019-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>['Salinity']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N245" t="b">
         <v>0</v>
       </c>
       <c r="O245" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>2019-12-31</t>
-        </is>
-      </c>
+      <c r="Q245" t="inlineStr"/>
       <c r="R245" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_OSC_MEDSEA_volume_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SI_BALTIC_extent-hq.png</t>
         </is>
       </c>
     </row>
@@ -18915,12 +18911,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Baltic Sea Ice Extent from Observations Reprocessing</t>
+          <t>Baltic Sea Ice Volume from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_SI_extent.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_SI_volume.png</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -18971,7 +18967,7 @@
       <c r="Q246" t="inlineStr"/>
       <c r="R246" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SI_BALTIC_extent-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SI_BALTIC_volume-hq.png</t>
         </is>
       </c>
     </row>
@@ -18983,12 +18979,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Baltic Sea Ice Volume from Observations Reprocessing</t>
+          <t>Baltic Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_SI_volume.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BALTIC_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -19006,40 +19002,40 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>1999-02-20</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Daily']</t>
+          <t>['Multi-yearly']</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>[9, 53, 30, 66]</t>
+          <t>[9.7, 52, 31, 66]</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', None]</t>
+          <t>['1999-02-20T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sea surface height']</t>
         </is>
       </c>
       <c r="N247" t="b">
         <v>0</v>
       </c>
       <c r="O247" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr"/>
       <c r="R247" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SI_BALTIC_volume-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BALTIC_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19051,12 +19047,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Baltic Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>Black Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BALTIC_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BLKSEA_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -19084,7 +19080,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>[9.7, 52, 31, 66]</t>
+          <t>[27.0625, 40.0625, 41.9375, 46.9375]</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -19107,7 +19103,7 @@
       <c r="Q248" t="inlineStr"/>
       <c r="R248" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BALTIC_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BLKSEA_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19119,12 +19115,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Black Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>European Seas Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BLKSEA_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_EUROPE_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -19152,7 +19148,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>[27.0625, 40.0625, 41.9375, 46.9375]</t>
+          <t>[-20, 30, 45, 60]</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -19175,7 +19171,7 @@
       <c r="Q249" t="inlineStr"/>
       <c r="R249" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_BLKSEA_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_EUROPE_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19187,12 +19183,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>European Seas Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>Global Ocean Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_EUROPE_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -19203,7 +19199,7 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -19220,7 +19216,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>[-20, 30, 45, 60]</t>
+          <t>[-180, -90, 180, 90]</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -19237,13 +19233,13 @@
         <v>0</v>
       </c>
       <c r="O250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P250" t="inlineStr"/>
       <c r="Q250" t="inlineStr"/>
       <c r="R250" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_EUROPE_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19255,12 +19251,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Global Ocean Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>Global Ocean Mean Sea Level trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_regional_trends.png</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -19274,7 +19270,11 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr"/>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>[-180, -90, 180, 90]</t>
+          <t>[-179.875, -89.875, 179.875, 89.875]</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -19302,16 +19302,16 @@
         </is>
       </c>
       <c r="N251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P251" t="inlineStr"/>
       <c r="Q251" t="inlineStr"/>
       <c r="R251" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_regional_trends-hq.png</t>
         </is>
       </c>
     </row>
@@ -19323,12 +19323,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Global Ocean Mean Sea Level trend map from Observations Reprocessing</t>
+          <t>Atlantic Iberian Biscay Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_regional_trends.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_IBI_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -19339,14 +19339,10 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
-        </is>
-      </c>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
@@ -19360,7 +19356,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>[-179.875, -89.875, 179.875, 89.875]</t>
+          <t>[-20, 26, 10, 48]</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -19374,7 +19370,7 @@
         </is>
       </c>
       <c r="N252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O252" t="n">
         <v>2</v>
@@ -19383,7 +19379,7 @@
       <c r="Q252" t="inlineStr"/>
       <c r="R252" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_GLOBAL_regional_trends-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_IBI_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19395,12 +19391,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Atlantic Iberian Biscay Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>Mediterranean Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_IBI_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_MEDSEA_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -19411,7 +19407,7 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -19428,7 +19424,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>[-20, 26, 10, 48]</t>
+          <t>[-5.94, 30.06, 36.94, 45.94]</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -19451,7 +19447,7 @@
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_IBI_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_MEDSEA_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19463,12 +19459,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>North West Atlantic Shelf Mean Sea Level time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_MEDSEA_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_NORTHWESTSHELF_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -19496,7 +19492,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>[-5.94, 30.06, 36.94, 45.94]</t>
+          <t>[-20, 48, 13, 62]</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -19519,7 +19515,7 @@
       <c r="Q254" t="inlineStr"/>
       <c r="R254" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_MEDSEA_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_NORTHWESTSHELF_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19531,12 +19527,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>North West Atlantic Shelf Mean Sea Level time series and trend from Observations Reprocessing</t>
+          <t>Baltic Sea Surface Temperature anomaly time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_NORTHWESTSHELF_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -19554,40 +19550,40 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1999-02-20</t>
+          <t>1982-01-01</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Multi-yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>[-20, 48, 13, 62]</t>
+          <t>[-12, 46, 32.01, 67.99]</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['1999-02-20T00:00:00.000Z', None]</t>
+          <t>['1982-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>['Sea surface height']</t>
+          <t>['Temperature']</t>
         </is>
       </c>
       <c r="N255" t="b">
         <v>0</v>
       </c>
       <c r="O255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P255" t="inlineStr"/>
       <c r="Q255" t="inlineStr"/>
       <c r="R255" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SL_NORTHWESTSHELF_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19599,12 +19595,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Baltic Sea Surface Temperature anomaly time series and trend from Observations Reprocessing</t>
+          <t>Baltic Sea Surface Temperature cumulative trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_trend.png</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -19618,7 +19614,11 @@
           <t>['Baltic Sea']</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.03, 'units': 'degree'}, 'column': {'magnitude': 0.03, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
@@ -19627,12 +19627,12 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>[-12, 46, 32.01, 67.99]</t>
+          <t>[-10, 48, 30, 66]</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="N256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O256" t="n">
         <v>1</v>
@@ -19655,7 +19655,7 @@
       <c r="Q256" t="inlineStr"/>
       <c r="R256" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -19667,12 +19667,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Baltic Sea Surface Temperature cumulative trend map from Observations Reprocessing</t>
+          <t>Iberia Biscay Ireland Sea Surface Temperature time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -19683,14 +19683,10 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.03, 'units': 'degree'}, 'column': {'magnitude': 0.03, 'units': 'degree'}}</t>
-        </is>
-      </c>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
@@ -19699,12 +19695,12 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>[-10, 48, 30, 66]</t>
+          <t>[-19, 26, 5, 56]</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -19718,16 +19714,16 @@
         </is>
       </c>
       <c r="N257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O257" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P257" t="inlineStr"/>
       <c r="Q257" t="inlineStr"/>
       <c r="R257" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_BAL_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19739,12 +19735,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Sea Surface Temperature time series and trend from Observations Reprocessing</t>
+          <t>Iberia Biscay Ireland Sea Surface Temperature trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_trend.png</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -19767,12 +19763,12 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>[-19, 26, 5, 56]</t>
+          <t>[-18.975000381469727, 26.024999618530273, 4.974999904632568, 55.974998474121094]</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -19786,16 +19782,16 @@
         </is>
       </c>
       <c r="N258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P258" t="inlineStr"/>
       <c r="Q258" t="inlineStr"/>
       <c r="R258" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -19807,12 +19803,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland Sea Surface Temperature trend map from Observations Reprocessing</t>
+          <t>Arctic Sea and Sea Ice Surface Temperature anomaly based on reprocessed observations</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_anomaly.png</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -19820,10 +19816,14 @@
           <t>['Satellite observations']</t>
         </is>
       </c>
-      <c r="E259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Level 4</t>
+        </is>
+      </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Arctic Ocean']</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -19835,17 +19835,17 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>[-18.975000381469727, 26.024999618530273, 4.974999904632568, 55.974998474121094]</t>
+          <t>[-179.97500610351562, 58, 179.97500610351562, 89.94999694824219]</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', None]</t>
+          <t>['1982-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -19860,10 +19860,14 @@
         <v>1</v>
       </c>
       <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IBI_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_anomaly-hq.png</t>
         </is>
       </c>
     </row>
@@ -19875,12 +19879,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Arctic Sea and Sea Ice Surface Temperature anomaly based on reprocessed observations</t>
+          <t>Arctic Sea and Sea Ice Surface Temperature anomaly time series based on reprocessed observations</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_anomaly.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -19907,12 +19911,12 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>[-179.97500610351562, 58, 179.97500610351562, 89.94999694824219]</t>
+          <t>[-180, 58, 180, 90]</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -19926,7 +19930,7 @@
         </is>
       </c>
       <c r="N260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O260" t="n">
         <v>1</v>
@@ -19939,7 +19943,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_anomaly-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -19951,12 +19955,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Arctic Sea and Sea Ice Surface Temperature anomaly time series based on reprocessed observations</t>
+          <t>Arctic Sea and Sea Ice Surface Temperature 2D trend from climatology based on reprocessed observations</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_trend.png</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -19983,12 +19987,12 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>[-180, 58, 180, 90]</t>
+          <t>[-179.97500610351562, 58, 179.97500610351562, 89.94999694824219]</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -20002,7 +20006,7 @@
         </is>
       </c>
       <c r="N261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O261" t="n">
         <v>1</v>
@@ -20015,7 +20019,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -20027,12 +20031,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Arctic Sea and Sea Ice Surface Temperature 2D trend from climatology based on reprocessed observations</t>
+          <t>European North West Shelf Sea Surface Temperature time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -20040,14 +20044,10 @@
           <t>['Satellite observations']</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
+      <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['Arctic Ocean']</t>
+          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
@@ -20059,17 +20059,17 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>[-179.97500610351562, 58, 179.97500610351562, 89.94999694824219]</t>
+          <t>[-18, 48, 13, 62]</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -20078,20 +20078,16 @@
         </is>
       </c>
       <c r="N262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
+      <c r="Q262" t="inlineStr"/>
       <c r="R262" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_IST_ARCTIC_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -20103,12 +20099,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>European North West Shelf Sea Surface Temperature time series and trend from Observations Reprocessing</t>
+          <t>European North West Shelf Sea Surface Temperature trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_trend.png</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -20136,7 +20132,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>[-18, 48, 13, 62]</t>
+          <t>[-17.975000381469727, 48.025001525878906, 12.975000381469727, 61.974998474121094]</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -20150,16 +20146,16 @@
         </is>
       </c>
       <c r="N263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P263" t="inlineStr"/>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -20171,63 +20167,67 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>European North West Shelf Sea Surface Temperature trend map from Observations Reprocessing</t>
+          <t>Baltic Sea Subsurface Salinity trend from Reanalysis</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_TEMPSAL_Stz_trend.png</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1982-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Multi-yearly']</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>[-17.975000381469727, 48.025001525878906, 12.975000381469727, 61.974998474121094]</t>
+          <t>[9, 53, 30, 66]</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>['Temperature']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_SST_NORTHWESTSHELF_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_TEMPSAL_BALTIC_Stz_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -20239,12 +20239,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Baltic Sea Subsurface Salinity trend from Reanalysis</t>
+          <t>Baltic Sea Subsurface Temperature trend from Reanalysis</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_TEMPSAL_Stz_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_TEMPSAL_Ttz_trend.png</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_TEMPSAL_BALTIC_Stz_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_TEMPSAL_BALTIC_Ttz_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -20311,67 +20311,67 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Baltic Sea Subsurface Temperature trend from Reanalysis</t>
+          <t>Global Ocean Thermosteric Sea Level anomaly (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_TEMPSAL_Ttz_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_2000.png</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['Multi-yearly']</t>
+          <t>['Yearly']</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>[9, 53, 30, 66]</t>
+          <t>[-180, -60, 180, 60]</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['2005-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sea surface height']</t>
         </is>
       </c>
       <c r="N266" t="b">
         <v>0</v>
       </c>
       <c r="O266" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P266" t="inlineStr"/>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_TEMPSAL_BALTIC_Ttz_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_2000-hq.png</t>
         </is>
       </c>
     </row>
@@ -20383,12 +20383,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Global Ocean Thermosteric Sea Level anomaly (0-2000m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Thermosteric Sea Level anomaly (0-700m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_2000.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_700.png</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -20443,7 +20443,7 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_2000-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_700-hq.png</t>
         </is>
       </c>
     </row>
@@ -20455,12 +20455,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Global Ocean Thermosteric Sea Level anomaly (0-700m) time series and trend from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>Global Ocean Thermosteric Sea Level trend map from Reanalysis &amp; Multi-Observations Reprocessing</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_700.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_trend.png</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -20474,7 +20474,11 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
+        </is>
+      </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
@@ -20488,7 +20492,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>[-180, -60, 180, 60]</t>
+          <t>[-180, -80, 179.75, 90]</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -20498,14 +20502,14 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>['Sea surface height']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O268" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P268" t="inlineStr"/>
       <c r="Q268" t="inlineStr">
@@ -20515,7 +20519,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_area_averaged_anomalies_0_700-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -20527,17 +20531,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Global Ocean Thermosteric Sea Level trend map from Reanalysis &amp; Multi-Observations Reprocessing</t>
+          <t>North Pacific Gyre Oscillation from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_CLIMVAR_PACIFIC_npgo_sla_eof_mode_projection.png</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -20546,52 +20550,44 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 0.25, 'units': 'degree'}, 'column': {'magnitude': 0.25, 'units': 'degree'}}</t>
-        </is>
-      </c>
+      <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2005-01-01</t>
+          <t>1950-01-15</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>['Monthly']</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>[-180, -80, 179.75, 90]</t>
+          <t>[0, -90, 360, 90]</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['2005-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1950-01-15T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sea surface height']</t>
         </is>
       </c>
       <c r="N269" t="b">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
         <v>1</v>
       </c>
-      <c r="O269" t="n">
-        <v>7</v>
-      </c>
       <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
+      <c r="Q269" t="inlineStr"/>
       <c r="R269" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_CLIMATE_THSL_GLOBAL_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_CLIMVAR_PACIFIC_npgo_sla_eof_mode_projection-hq.png</t>
         </is>
       </c>
     </row>
@@ -20603,63 +20599,71 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>North Pacific Gyre Oscillation from Observations Reprocessing</t>
+          <t>Marine Heatwave Index in the Barents Sea from Reanalysis</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_CLIMVAR_PACIFIC_npgo_sla_eof_mode_projection.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/ARCTIC_OMI_EXTREME_MHW_area_averaged_anomalies.png</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
+          <t>['Numerical models']</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Level 4</t>
+        </is>
+      </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
+          <t>['Arctic Ocean']</t>
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1950-01-15</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Monthly']</t>
+          <t>['Daily']</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>[0, -90, 360, 90]</t>
+          <t>[18, 68, 55, 80]</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['1950-01-15T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>['Sea surface height']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N270" t="b">
         <v>0</v>
       </c>
       <c r="O270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P270" t="inlineStr"/>
-      <c r="Q270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_CLIMVAR_PACIFIC_npgo_sla_eof_mode_projection-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/ARCTIC_OMI_EXTREME_MHW_area_averaged_anomalies-hq.png</t>
         </is>
       </c>
     </row>
@@ -20671,27 +20675,23 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Marine Heatwave Index in the Barents Sea from Reanalysis</t>
+          <t>Baltic Sea sea level extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/ARCTIC_OMI_EXTREME_MHW_area_averaged_anomalies.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_BALTIC_slev_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
+          <t>['In-situ observations']</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>['Arctic Ocean']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
@@ -20703,39 +20703,39 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['Daily']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>[18, 68, 55, 80]</t>
+          <t>[0, 50, 30.5, 67]</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2024-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sea surface height']</t>
         </is>
       </c>
       <c r="N271" t="b">
         <v>0</v>
       </c>
       <c r="O271" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P271" t="inlineStr"/>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/ARCTIC_OMI_EXTREME_MHW_area_averaged_anomalies-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_BALTIC_slev_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -20747,12 +20747,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Baltic Sea sea level extreme variability mean and anomaly (observations)</t>
+          <t>Iberia Biscay Ireland sea level extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_BALTIC_slev_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_IBI_slev_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -20763,7 +20763,7 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>[0, 50, 30.5, 67]</t>
+          <t>[-23, 26, 14, 56]</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_BALTIC_slev_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_IBI_slev_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -20819,12 +20819,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland sea level extreme variability mean and anomaly (observations)</t>
+          <t>Mediterranean Sea sea level extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_IBI_slev_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_MEDSEA_slev_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -20835,14 +20835,14 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>[-23, 26, 14, 56]</t>
+          <t>[-6, 23, 35, 52]</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_IBI_slev_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_MEDSEA_slev_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -20891,12 +20891,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Mediterranean Sea sea level extreme variability mean and anomaly (observations)</t>
+          <t>North West Shelf sea level extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_MEDSEA_slev_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_NORTHWESTSHELF_slev_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -20907,14 +20907,14 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -20924,12 +20924,12 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>[-6, 23, 35, 52]</t>
+          <t>[-13, 46, 13, 62.5]</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_MEDSEA_slev_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_NORTHWESTSHELF_slev_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -20963,12 +20963,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>North West Shelf sea level extreme variability mean and anomaly (observations)</t>
+          <t>Baltic Sea sea surface temperature extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_NORTHWESTSHELF_slev_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_BALTIC_sst_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -20979,14 +20979,14 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1993-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -20996,17 +20996,17 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>[-13, 46, 13, 62.5]</t>
+          <t>[0, 50, 30.5, 67]</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>['Sea surface height']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N275" t="b">
@@ -21023,7 +21023,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SL_NORTHWESTSHELF_slev_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_BALTIC_sst_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21035,12 +21035,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Baltic Sea sea surface temperature extreme variability mean and anomaly (observations)</t>
+          <t>Iberia Biscay Ireland sea surface temperature extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_BALTIC_sst_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_IBI_sst_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -21051,7 +21051,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G276" t="inlineStr"/>
@@ -21068,7 +21068,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>[0, 50, 30.5, 67]</t>
+          <t>[-23, 26, 14, 56]</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -21095,7 +21095,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_BALTIC_sst_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_IBI_sst_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21107,12 +21107,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland sea surface temperature extreme variability mean and anomaly (observations)</t>
+          <t>Mediterranean Sea sea surface temperature extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_IBI_sst_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_MEDSEA_sst_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -21123,7 +21123,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G277" t="inlineStr"/>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>[-23, 26, 14, 56]</t>
+          <t>[-6, 23, 35, 52]</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_IBI_sst_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_MEDSEA_sst_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21179,12 +21179,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Mediterranean Sea sea surface temperature extreme variability mean and anomaly (observations)</t>
+          <t>North West Shelf sea surface temperature extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_MEDSEA_sst_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_NORTHWESTSHELF_sst_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -21195,7 +21195,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G278" t="inlineStr"/>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>[-6, 23, 35, 52]</t>
+          <t>[-13, 46, 13, 62.5]</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_MEDSEA_sst_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_NORTHWESTSHELF_sst_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21251,30 +21251,30 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>North West Shelf sea surface temperature extreme variability mean and anomaly (observations)</t>
+          <t>Global Ocean, extreme and mean significant wave height trends from satellite observations - seasonal trends</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_NORTHWESTSHELF_sst_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_STATE_GLOBAL_trend.png</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>['In-situ observations']</t>
+          <t>['Satellite observations']</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>2001-11-15</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -21284,12 +21284,12 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>[-13, 46, 13, 62.5]</t>
+          <t>[-179, -89, 179, 89]</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
+          <t>['2001-11-15T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -21298,20 +21298,16 @@
         </is>
       </c>
       <c r="N279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P279" t="inlineStr"/>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
+      <c r="Q279" t="inlineStr"/>
       <c r="R279" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_SST_NORTHWESTSHELF_sst_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_STATE_GLOBAL_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -21323,30 +21319,30 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Global Ocean, extreme and mean significant wave height trends from satellite observations - seasonal trends</t>
+          <t>Baltic Sea significant wave height extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_STATE_GLOBAL_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BALTIC_swh_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
+          <t>['In-situ observations']</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2001-11-15</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -21356,30 +21352,34 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>[-179, -89, 179, 89]</t>
+          <t>[0, 50, 30.5, 67]</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['2001-11-15T00:00:00.000Z', None]</t>
+          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wave']</t>
         </is>
       </c>
       <c r="N280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O280" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P280" t="inlineStr"/>
-      <c r="Q280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_STATE_GLOBAL_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BALTIC_swh_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21391,67 +21391,63 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Baltic Sea significant wave height extreme variability mean and anomaly (observations)</t>
+          <t>Black Sea extreme wave events</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BALTIC_swh_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_recent_changes.png</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>['In-situ observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
+          <t>['Black Sea']</t>
         </is>
       </c>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>1950-01-01</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
+          <t>['Yearly']</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>[27.25, 40.5, 42, 47]</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>['1950-01-01T00:00:00.000Z', None]</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>[0, 50, 30.5, 67]</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>['Wave']</t>
-        </is>
-      </c>
       <c r="N281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O281" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P281" t="inlineStr"/>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
+      <c r="Q281" t="inlineStr"/>
       <c r="R281" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BALTIC_swh_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_recent_changes-hq.png</t>
         </is>
       </c>
     </row>
@@ -21463,12 +21459,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Black Sea extreme wave events</t>
+          <t>Black Sea wave power</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_recent_changes.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_wave_power.png</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21519,7 +21515,7 @@
       <c r="Q282" t="inlineStr"/>
       <c r="R282" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_recent_changes-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_wave_power-hq.png</t>
         </is>
       </c>
     </row>
@@ -21531,63 +21527,67 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Black Sea wave power</t>
+          <t>Iberia Biscay Ireland significant wave height extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_wave_power.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_IBI_swh_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['In-situ observations']</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>['Black Sea']</t>
+          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1950-01-01</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>[27.25, 40.5, 42, 47]</t>
+          <t>[-23, 26, 14, 56]</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['1950-01-01T00:00:00.000Z', None]</t>
+          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Wave']</t>
         </is>
       </c>
       <c r="N283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O283" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P283" t="inlineStr"/>
-      <c r="Q283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_BLKSEA_wave_power-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_IBI_swh_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21599,12 +21599,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Iberia Biscay Ireland significant wave height extreme variability mean and anomaly (observations)</t>
+          <t>Mediterranean Sea significant wave height extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_IBI_swh_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_MEDSEA_swh_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21615,7 +21615,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>['Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G284" t="inlineStr"/>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>[-23, 26, 14, 56]</t>
+          <t>[-6, 23, 35, 52]</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_IBI_swh_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_MEDSEA_swh_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21671,12 +21671,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mediterranean Sea significant wave height extreme variability mean and anomaly (observations)</t>
+          <t>North West Shelf significant wave height extreme variability mean and anomaly (observations)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_MEDSEA_swh_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_NORTHWESTSHELF_swh_mean_and_anomaly_obs.png</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -21687,7 +21687,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G285" t="inlineStr"/>
@@ -21704,7 +21704,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>[-6, 23, 35, 52]</t>
+          <t>[-13, 46, 13, 62.5]</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_MEDSEA_swh_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_NORTHWESTSHELF_swh_mean_and_anomaly_obs-hq.png</t>
         </is>
       </c>
     </row>
@@ -21743,67 +21743,63 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>North West Shelf significant wave height extreme variability mean and anomaly (observations)</t>
+          <t>Mediterranean Water Mass Formation Rates from Reanalysis</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_NORTHWESTSHELF_swh_mean_and_anomaly_obs.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WMF_MEDSEA_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>['In-situ observations']</t>
+          <t>['Numerical models']</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>['Atlantic: NW European Shelf', 'Atlantic: North']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>2000-01-01</t>
+          <t>1987-01-01</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
+          <t>['Yearly']</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>[-6, 30, 36, 46]</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>['1987-01-01T00:00:00.000Z', None]</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>[-13, 46, 13, 62.5]</t>
-        </is>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>['2000-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
-        </is>
-      </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>['Wave']</t>
-        </is>
-      </c>
       <c r="N286" t="b">
         <v>0</v>
       </c>
       <c r="O286" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P286" t="inlineStr"/>
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
+      <c r="Q286" t="inlineStr"/>
       <c r="R286" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WAVE_NORTHWESTSHELF_swh_mean_and_anomaly_obs-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WMF_MEDSEA_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -21815,20 +21811,24 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Mediterranean Water Mass Formation Rates from Reanalysis</t>
+          <t>Baltic Sea summer bloom coverage</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WMF_MEDSEA_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_BLOOM_BALTIC_spatiotemporal_coverage.png</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr"/>
+          <t>['Satellite observations']</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Level 4</t>
+        </is>
+      </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>['Mediterranean Sea']</t>
@@ -21838,22 +21838,22 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1987-01-01</t>
+          <t>1998-06-01</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Yearly']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>[-6, 30, 36, 46]</t>
+          <t>[9.25, 53.25, 30.25, 65.85]</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['1987-01-01T00:00:00.000Z', None]</t>
+          <t>['1998-06-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -21865,13 +21865,13 @@
         <v>0</v>
       </c>
       <c r="O287" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P287" t="inlineStr"/>
       <c r="Q287" t="inlineStr"/>
       <c r="R287" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_EXTREME_WMF_MEDSEA_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_BLOOM_BALTIC_spatiotemporal_coverage-hq.png</t>
         </is>
       </c>
     </row>
@@ -21883,12 +21883,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Baltic Sea summer bloom coverage</t>
+          <t>Arctic Ocean Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_BLOOM_BALTIC_spatiotemporal_coverage.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ARCTIC_OCEANCOLOUR_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -21903,14 +21903,18 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr"/>
+          <t>['Arctic Ocean']</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
+        </is>
+      </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1998-06-01</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -21920,30 +21924,30 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>[9.25, 53.25, 30.25, 65.85]</t>
+          <t>[-180, 65, 180, 90]</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['1998-06-01T00:00:00.000Z', None]</t>
+          <t>['1997-09-04T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Plankton']</t>
         </is>
       </c>
       <c r="N288" t="b">
         <v>0</v>
       </c>
       <c r="O288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P288" t="inlineStr"/>
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_BLOOM_BALTIC_spatiotemporal_coverage-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ARCTIC_OCEANCOLOUR_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -21955,12 +21959,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Arctic Ocean Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>North Atlantic Ocean Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ARCTIC_OCEANCOLOUR_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -21975,7 +21979,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>['Arctic Ocean']</t>
+          <t>['Baltic Sea', 'Mediterranean Sea', 'Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -21996,7 +22000,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>[-180, 65, 180, 90]</t>
+          <t>[-46, 20, 13, 66]</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -22019,7 +22023,7 @@
       <c r="Q289" t="inlineStr"/>
       <c r="R289" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ARCTIC_OCEANCOLOUR_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22031,12 +22035,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>North Atlantic Ocean Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>North Atlantic Ocean Eutrophication from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_eutrophication.png</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -22062,7 +22066,7 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -22072,30 +22076,34 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>[-46, 20, 13, 66]</t>
+          <t>[-45.99479293823242, 20.00520896911621, 12.994791984558105, 65.99478912353516]</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', None]</t>
+          <t>['2021-01-01T00:00:00.000Z', '2021-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>['Plankton']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_eutrophication-hq.png</t>
         </is>
       </c>
     </row>
@@ -22107,12 +22115,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>North Atlantic Ocean Eutrophication from Observations Reprocessing</t>
+          <t>Baltic Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_eutrophication.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -22127,7 +22135,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>['Baltic Sea', 'Mediterranean Sea', 'Atlantic: Iberia-Biscay-Ireland', 'Atlantic: North']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -22138,7 +22146,7 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>1997-09-14</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -22148,34 +22156,30 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>[-45.99479293823242, 20.00520896911621, 12.994791984558105, 65.99478912353516]</t>
+          <t>[9.25, 53.25, 30.25, 65.85]</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2021-12-31T00:00:00.000Z']</t>
+          <t>['1997-09-14T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Plankton']</t>
         </is>
       </c>
       <c r="N291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O291" t="n">
         <v>2</v>
       </c>
       <c r="P291" t="inlineStr"/>
-      <c r="Q291" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
+      <c r="Q291" t="inlineStr"/>
       <c r="R291" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_ATLANTIC_OCEANCOLOUR_eutrophication-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22187,12 +22191,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Baltic Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>Baltic Sea Chlorophyll-a trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_trend.png</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -22210,15 +22214,11 @@
           <t>['Baltic Sea']</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
-        </is>
-      </c>
+      <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1997-09-14</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -22228,12 +22228,12 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>[9.25, 53.25, 30.25, 65.85]</t>
+          <t>[9.25, 53.25, 30.24993896484375, 65.84907531738281]</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['1997-09-14T00:00:00.000Z', None]</t>
+          <t>['1997-09-04T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -22242,16 +22242,16 @@
         </is>
       </c>
       <c r="N292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr"/>
       <c r="R292" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -22263,12 +22263,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Baltic Sea Chlorophyll-a trend map from Observations Reprocessing</t>
+          <t>Black Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -22283,14 +22283,18 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>['Baltic Sea']</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr"/>
+          <t>['Black Sea']</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
+        </is>
+      </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>1997-01-01</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -22300,12 +22304,12 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>[9.25, 53.25, 30.24993896484375, 65.84907531738281]</t>
+          <t>[26.5, 40, 42, 48]</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', None]</t>
+          <t>['1997-01-01T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -22314,16 +22318,16 @@
         </is>
       </c>
       <c r="N293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr"/>
       <c r="R293" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BALTIC_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22335,12 +22339,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Black Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>Black Sea Chlorophyll-a trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_trend.png</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -22358,11 +22362,7 @@
           <t>['Black Sea']</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
-        </is>
-      </c>
+      <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>[26.5, 40, 42, 48]</t>
+          <t>[26.5, 40, 42.000640869140625, 48.000038146972656]</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -22390,16 +22390,16 @@
         </is>
       </c>
       <c r="N294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr"/>
       <c r="R294" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -22411,12 +22411,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Black Sea Chlorophyll-a trend map from Observations Reprocessing</t>
+          <t>North Atlantic Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_nag_area_mean.png</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -22431,14 +22431,14 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>['Black Sea']</t>
+          <t>['Global Ocean']</t>
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1997-01-01</t>
+          <t>1997-09-04</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -22448,12 +22448,12 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>[26.5, 40, 42.000640869140625, 48.000038146972656]</t>
+          <t>[-85, 5, 0, 45]</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['1997-01-01T00:00:00.000Z', None]</t>
+          <t>['1997-09-04T00:00:00.000Z', None]</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -22462,7 +22462,7 @@
         </is>
       </c>
       <c r="N295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O295" t="n">
         <v>1</v>
@@ -22471,7 +22471,7 @@
       <c r="Q295" t="inlineStr"/>
       <c r="R295" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_BLKSEA_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_nag_area_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22483,12 +22483,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>North Atlantic Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>North Pacific Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_nag_area_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_npg_area_mean.png</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -22520,7 +22520,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>[-85, 5, 0, 45]</t>
+          <t>[120, 5, 260, 45]</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -22543,7 +22543,7 @@
       <c r="Q296" t="inlineStr"/>
       <c r="R296" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_nag_area_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_npg_area_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22555,12 +22555,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>North Pacific Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>South Atlantic Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_npg_area_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_sag_area_mean.png</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -22592,7 +22592,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>[120, 5, 260, 45]</t>
+          <t>[-65, -45, 20, 5]</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -22615,7 +22615,7 @@
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_npg_area_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_sag_area_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22627,12 +22627,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>South Atlantic Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>South Pacific Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_sag_area_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_spg_area_mean.png</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>[-65, -45, 20, 5]</t>
+          <t>[148.5, -45, 290, -5]</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -22687,7 +22687,7 @@
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_sag_area_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_spg_area_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22699,12 +22699,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>South Pacific Gyre Area Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>Global Ocean Chlorophyll-a trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_spg_area_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_trend.png</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -22722,7 +22722,11 @@
           <t>['Global Ocean']</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>{'row': {'magnitude': 4, 'units': 'km'}, 'column': {'magnitude': 4, 'units': 'km'}}</t>
+        </is>
+      </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
@@ -22736,7 +22740,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>[148.5, -45, 290, -5]</t>
+          <t>[-179.9791717529297, -89.97916412353516, 179.9791717529297, 89.97916412353516]</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -22750,7 +22754,7 @@
         </is>
       </c>
       <c r="N299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O299" t="n">
         <v>1</v>
@@ -22759,7 +22763,7 @@
       <c r="Q299" t="inlineStr"/>
       <c r="R299" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_oligo_spg_area_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -22771,12 +22775,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Global Ocean Chlorophyll-a trend map from Observations Reprocessing</t>
+          <t>Mediterranean Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_area_averaged_mean.png</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -22791,12 +22795,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>['Global Ocean']</t>
+          <t>['Mediterranean Sea']</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>{'row': {'magnitude': 4, 'units': 'km'}, 'column': {'magnitude': 4, 'units': 'km'}}</t>
+          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
@@ -22812,7 +22816,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>[-179.9791717529297, -89.97916412353516, 179.9791717529297, 89.97916412353516]</t>
+          <t>[-6, 30, 36.5, 46]</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -22826,16 +22830,16 @@
         </is>
       </c>
       <c r="N300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P300" t="inlineStr"/>
       <c r="Q300" t="inlineStr"/>
       <c r="R300" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_GLOBAL_OCEANCOLOUR_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_area_averaged_mean-hq.png</t>
         </is>
       </c>
     </row>
@@ -22847,12 +22851,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Chlorophyll-a time series and trend from Observations Reprocessing</t>
+          <t>Mediterranean Sea Chlorophyll-a trend map from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_area_averaged_mean.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_trend.png</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -22870,11 +22874,7 @@
           <t>['Mediterranean Sea']</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>{'row': {'magnitude': 1, 'units': 'km'}, 'column': {'magnitude': 1, 'units': 'km'}}</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>[-6, 30, 36.5, 46]</t>
+          <t>[-6, 30, 36.50048065185547, 45.9985466003418]</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -22902,16 +22902,16 @@
         </is>
       </c>
       <c r="N301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P301" t="inlineStr"/>
       <c r="Q301" t="inlineStr"/>
       <c r="R301" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_area_averaged_mean-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_trend-hq.png</t>
         </is>
       </c>
     </row>
@@ -22923,58 +22923,54 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Mediterranean Sea Chlorophyll-a trend map from Observations Reprocessing</t>
+          <t>Baltic Sea Cod Reproductive Volume from Reanalysis</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_trend.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_HEALTH_codt_volume.png.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>['Satellite observations']</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
+          <t>['Numerical models']</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>['Mediterranean Sea']</t>
+          <t>['Baltic Sea']</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1997-09-04</t>
+          <t>1993-01-01</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
+          <t>['Daily']</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>[9, 53, 30, 66]</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>['1993-01-01T00:00:00.000Z', None]</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>[-6, 30, 36.50048065185547, 45.9985466003418]</t>
-        </is>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>['1997-09-04T00:00:00.000Z', None]</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>['Plankton']</t>
-        </is>
-      </c>
       <c r="N302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O302" t="n">
         <v>1</v>
@@ -22983,7 +22979,7 @@
       <c r="Q302" t="inlineStr"/>
       <c r="R302" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_CHL_MEDSEA_trend-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_TEMPSALOXY_BALTIC_cod_volume-hq.png</t>
         </is>
       </c>
     </row>
@@ -22995,17 +22991,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Baltic Sea Cod Reproductive Volume from Reanalysis</t>
+          <t>Baltic Sea Major Baltic Inflow: bottom salinity from Reanalysis</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_HEALTH_codt_volume.png.</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_WMHE_mbi_bottom_salinity_arkona_bornholm.png</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>['Numerical models']</t>
+          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -23045,13 +23041,13 @@
         <v>0</v>
       </c>
       <c r="O303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P303" t="inlineStr"/>
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_TEMPSALOXY_BALTIC_cod_volume-hq.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_TEMPSALOXY_BALTIC_mbi_bottom_salinity_arkona_bornholm-hq.png</t>
         </is>
       </c>
     </row>
@@ -23063,12 +23059,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Baltic Sea Major Baltic Inflow: bottom salinity from Reanalysis</t>
+          <t>Baltic Sea Major Baltic Inflow: time/depth evolution S,T,O2 from Observations Reprocessing</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_WMHE_mbi_bottom_salinity_arkona_bornholm.png</t>
+          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_WMHE_mbi_sto2tz_gotland.png</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -23101,95 +23097,27 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', None]</t>
+          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Temperature', 'Salinity', 'Oxygen']</t>
         </is>
       </c>
       <c r="N304" t="b">
         <v>0</v>
       </c>
       <c r="O304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P304" t="inlineStr"/>
-      <c r="Q304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
       <c r="R304" t="inlineStr">
-        <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_TEMPSALOXY_BALTIC_mbi_bottom_salinity_arkona_bornholm-hq.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>CMEMS</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Baltic Sea Major Baltic Inflow: time/depth evolution S,T,O2 from Observations Reprocessing</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>https://documentation.marine.copernicus.eu/IMG/BALTIC_OMI_WMHE_mbi_sto2tz_gotland.png</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>['In-situ observations', 'Numerical models', 'Satellite observations']</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>['Baltic Sea']</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>1993-01-01</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>['Daily']</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>[9, 53, 30, 66]</t>
-        </is>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>['1993-01-01T00:00:00.000Z', '2023-12-31T00:00:00.000Z']</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>['Temperature', 'Salinity', 'Oxygen']</t>
-        </is>
-      </c>
-      <c r="N305" t="b">
-        <v>0</v>
-      </c>
-      <c r="O305" t="n">
-        <v>3</v>
-      </c>
-      <c r="P305" t="inlineStr"/>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>2023-12-31</t>
-        </is>
-      </c>
-      <c r="R305" t="inlineStr">
         <is>
           <t>https://documentation.marine.copernicus.eu/IMG/OMI_HEALTH_TEMPSALOXY_BALTIC_mbi_sto2tz_gotland-hq.png</t>
         </is>

--- a/outputs/excel/copernicus_marine.xlsx
+++ b/outputs/excel/copernicus_marine.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2020-11-01T00:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
+          <t>['2020-11-01T00:00:00.000Z', '2026-02-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2022-11-01T03:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
+          <t>['2022-11-01T03:00:00.000Z', '2026-02-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2021-10-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
+          <t>['2021-10-01T00:00:00.000Z', '2026-02-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2021-07-05T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
+          <t>['2021-07-05T00:00:00.000Z', '2026-02-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2022-08-01T00:00:00.000Z', '2026-02-15T12:00:00.000Z']</t>
+          <t>['2022-08-01T00:00:00.000Z', '2026-02-22T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2019-08-01T00:00:00.000Z', '2026-02-14T23:00:00.000Z']</t>
+          <t>['2019-08-01T00:00:00.000Z', '2026-02-21T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-16T23:45:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-23T23:45:00.000Z']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['1991-01-01T00:00:00.000Z', '2025-08-31T00:00:00.000Z']</t>
+          <t>['1991-01-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-16T12:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-23T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2021-10-01T01:00:00.000Z', '2026-02-16T12:00:00.000Z']</t>
+          <t>['2021-10-01T01:00:00.000Z', '2026-02-23T12:00:00.000Z']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2022-11-01T00:00:00.000Z', '2026-02-15T00:00:00.000Z']</t>
+          <t>['2022-11-01T00:00:00.000Z', '2026-02-22T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2021-11-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
+          <t>['2021-11-01T00:00:00.000Z', '2026-02-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2022-12-18T00:00:00.000Z', '2026-02-17T11:00:00.000Z']</t>
+          <t>['2022-12-18T00:00:00.000Z', '2026-02-24T11:00:00.000Z']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['1992-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1992-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2022-11-22T00:00:00.000Z', '2026-02-17T00:00:00.000Z']</t>
+          <t>['2022-11-22T00:00:00.000Z', '2026-02-24T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['2022-11-26T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
+          <t>['2022-11-26T00:00:00.000Z', '2026-02-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['2022-11-23T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
+          <t>['2022-11-23T00:00:00.000Z', '2026-02-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2021-11-30T00:00:00.000Z', '2026-02-16T23:00:00.000Z']</t>
+          <t>['2021-11-30T00:00:00.000Z', '2026-02-23T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2023-10-01T00:00:00.000Z', '2026-02-16T00:00:00.000Z']</t>
+          <t>['2023-10-01T00:00:00.000Z', '2026-02-23T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['1987-01-01T00:00:00.000Z', '2025-12-31T23:00:00.000Z']</t>
+          <t>['1987-01-01T00:00:00.000Z', '2026-01-31T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-21T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-20T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['2023-09-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
+          <t>['2023-09-29T00:00:00.000Z', '2026-02-20T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2022-05-03T00:00:00.000Z', '2026-02-07T17:30:23.000Z']</t>
+          <t>['2022-05-03T00:00:00.000Z', '2026-02-14T16:34:55.000Z']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2022-03-14T01:03:00.000Z', '2026-02-07T12:10:32.748Z']</t>
+          <t>['2022-03-14T01:03:00.000Z', '2026-02-14T12:25:54.234Z']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['2022-10-04T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
+          <t>['2022-10-04T00:00:00.000Z', '2026-02-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['2023-04-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['2023-04-25T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-25T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2023-04-18T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-18T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2023-04-29T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-04-29T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-29T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-31T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['1997-09-04T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['1997-09-04T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['1997-09-16T00:00:00.000Z', '2026-01-30T00:00:00.000Z']</t>
+          <t>['1997-09-16T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['1997-09-01T00:00:00.000Z', '2026-01-26T00:00:00.000Z']</t>
+          <t>['1997-09-01T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['2024-01-17T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2024-01-17T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>['2020-12-20T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2020-12-20T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -8463,7 +8463,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['2019-03-11T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2019-03-11T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['2023-01-30T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2023-01-30T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['2022-05-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
+          <t>['2022-05-01T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['2008-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2008-01-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['2019-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
+          <t>['2019-01-01T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>['1982-01-01T00:00:00.000Z', '2026-01-08T00:00:00.000Z']</t>
+          <t>['1982-01-01T00:00:00.000Z', '2026-01-15T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['2022-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2022-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['2023-10-18T00:00:00.000Z', '2026-02-02T00:00:00.000Z']</t>
+          <t>['2023-10-18T00:00:00.000Z', '2026-02-09T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['2022-01-02T00:00:00.000Z', '2026-02-07T12:00:00.000Z']</t>
+          <t>['2022-01-02T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['2023-02-02T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2023-02-02T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['2025-11-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2025-11-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['2020-09-01T12:10:00.000Z', '2026-02-06T15:00:00.000Z']</t>
+          <t>['2020-09-01T12:10:00.000Z', '2026-02-13T21:15:00.000Z']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['2023-11-25T06:40:00.000Z', '2026-02-07T22:32:44.000Z']</t>
+          <t>['2023-11-25T06:40:00.000Z', '2026-02-14T21:53:10.000Z']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['2024-10-03T22:11:12.000Z', '2026-02-06T23:31:34.000Z']</t>
+          <t>['2014-10-03T20:11:44.000Z', '2026-02-13T23:51:45.000Z']</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['2018-01-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2018-01-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['2014-10-03T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2014-10-03T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['2016-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2016-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['2023-11-20T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
+          <t>['2023-11-20T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['2024-04-01T00:00:00.000Z', '2026-02-07T00:00:00.000Z']</t>
+          <t>['2024-04-01T00:00:00.000Z', '2026-02-14T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['1991-08-01T00:00:00.000Z', '2025-09-30T00:00:00.000Z']</t>
+          <t>['1991-08-01T00:00:00.000Z', '2025-10-31T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['1994-06-01T00:00:00.000Z', '2025-09-20T23:00:00.000Z']</t>
+          <t>['1994-06-01T00:00:00.000Z', '2025-10-21T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>['1994-07-01T00:00:00.000Z', '2025-09-01T00:00:00.000Z']</t>
+          <t>['1994-07-01T00:00:00.000Z', '2025-10-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-02-07T22:23:44.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-14T21:52:03.000Z']</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['2021-01-01T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2021-01-01T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['2023-06-08T00:00:00.000Z', '2026-02-17T21:00:00.000Z']</t>
+          <t>['2023-06-08T00:00:00.000Z', '2026-02-26T21:00:00.000Z']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -13369,7 +13369,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['2023-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['2023-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['1986-06-02T09:00:00.000Z', '2026-02-07T08:37:30.000Z']</t>
+          <t>['1986-06-02T09:00:00.000Z', '2026-02-14T07:15:56.000Z']</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T22:10:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-14T22:20:00.000Z']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T22:28:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-14T22:28:00.000Z']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['1841-03-21T00:00:00.000Z', '2026-02-07T20:43:00.000Z']</t>
+          <t>['1841-03-21T00:00:00.000Z', '2026-02-14T18:42:59.000Z']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-07T22:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-14T23:14:00.000Z']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-07T22:13:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-14T22:14:00.000Z']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['2020-01-01T00:00:00.000Z', '2026-02-06T14:32:00.000Z']</t>
+          <t>['2020-01-01T00:00:00.000Z', '2026-02-14T22:10:00.000Z']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -14551,7 +14551,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['2023-11-01T00:00:00.000Z', '2026-02-06T19:50:00.000Z']</t>
+          <t>['2023-11-01T00:00:00.000Z', '2026-02-13T19:50:00.000Z']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>['1993-01-06T00:00:00.000Z', '2026-01-28T00:00:00.000Z']</t>
+          <t>['1993-01-06T00:00:00.000Z', '2026-02-04T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-02-06T23:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-13T23:00:00.000Z']</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>['2010-01-12T00:00:00.000Z', '2026-02-06T00:00:00.000Z']</t>
+          <t>['2010-01-12T00:00:00.000Z', '2026-02-13T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['1993-01-01T00:00:00.000Z', '2026-02-01T00:00:00.000Z']</t>
+          <t>['1993-01-01T00:00:00.000Z', '2026-02-08T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['1985-01-01T00:00:00.000Z', '2025-12-01T00:00:00.000Z']</t>
+          <t>['1985-01-01T00:00:00.000Z', '2026-01-01T00:00:00.000Z']</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
